--- a/Code/Results/Cases/Case_0_234/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_234/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.809063733878828</v>
+        <v>12.59759837740221</v>
       </c>
       <c r="D2">
-        <v>11.13420320823045</v>
+        <v>12.07807400996011</v>
       </c>
       <c r="E2">
-        <v>8.209182706118934</v>
+        <v>12.38685093838693</v>
       </c>
       <c r="F2">
-        <v>65.32874000315948</v>
+        <v>59.54525487882027</v>
       </c>
       <c r="G2">
-        <v>2.124244946042417</v>
+        <v>3.791290863414195</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.1315012374965</v>
+        <v>22.2946968890948</v>
       </c>
       <c r="L2">
-        <v>5.056112570911576</v>
+        <v>8.620385607774349</v>
       </c>
       <c r="M2">
-        <v>16.72670998762224</v>
+        <v>22.56752991014817</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.437636105285675</v>
+        <v>12.56548497165073</v>
       </c>
       <c r="D3">
-        <v>10.78307421629421</v>
+        <v>11.99063217526515</v>
       </c>
       <c r="E3">
-        <v>8.072077513725485</v>
+        <v>12.3918448796539</v>
       </c>
       <c r="F3">
-        <v>61.9458515263975</v>
+        <v>58.64943377490314</v>
       </c>
       <c r="G3">
-        <v>2.140496444807798</v>
+        <v>3.796486930794841</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.85044903688667</v>
+        <v>22.17715874727757</v>
       </c>
       <c r="L3">
-        <v>5.074830176364544</v>
+        <v>8.633470237417729</v>
       </c>
       <c r="M3">
-        <v>16.00476258375308</v>
+        <v>22.54860712892781</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.212735509010558</v>
+        <v>12.54849518781128</v>
       </c>
       <c r="D4">
-        <v>10.56913355463165</v>
+        <v>11.93699011476378</v>
       </c>
       <c r="E4">
-        <v>7.992710086117809</v>
+        <v>12.39671666261354</v>
       </c>
       <c r="F4">
-        <v>59.84299368797572</v>
+        <v>58.1010366047169</v>
       </c>
       <c r="G4">
-        <v>2.15059126458256</v>
+        <v>3.799835133562097</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.10074794339598</v>
+        <v>22.11375484052347</v>
       </c>
       <c r="L4">
-        <v>5.087604340552446</v>
+        <v>8.642112729878654</v>
       </c>
       <c r="M4">
-        <v>15.56821757137991</v>
+        <v>22.54381306196882</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.121897492295131</v>
+        <v>12.54225972679078</v>
       </c>
       <c r="D5">
-        <v>10.4823051936057</v>
+        <v>11.91514738260152</v>
       </c>
       <c r="E5">
-        <v>7.961524605157972</v>
+        <v>12.39915520495384</v>
       </c>
       <c r="F5">
-        <v>58.9796889276201</v>
+        <v>57.87816530659294</v>
       </c>
       <c r="G5">
-        <v>2.154741439585639</v>
+        <v>3.801239421090784</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.79340670678938</v>
+        <v>22.09014256364203</v>
       </c>
       <c r="L5">
-        <v>5.09312522959382</v>
+        <v>8.645787852764725</v>
       </c>
       <c r="M5">
-        <v>15.39208844523497</v>
+        <v>22.5435749621522</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.106863710798194</v>
+        <v>12.54126593447682</v>
       </c>
       <c r="D6">
-        <v>10.46790729133461</v>
+        <v>11.91152156771346</v>
       </c>
       <c r="E6">
-        <v>7.956414708360859</v>
+        <v>12.39958747427976</v>
       </c>
       <c r="F6">
-        <v>58.83596020335067</v>
+        <v>57.84119983154423</v>
       </c>
       <c r="G6">
-        <v>2.155432969766997</v>
+        <v>3.801475015394334</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.74226843901445</v>
+        <v>22.08635670965693</v>
       </c>
       <c r="L6">
-        <v>5.094060824932784</v>
+        <v>8.646407366077016</v>
       </c>
       <c r="M6">
-        <v>15.36295200167288</v>
+        <v>22.54363899459797</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.211507117481965</v>
+        <v>12.54840830622855</v>
       </c>
       <c r="D7">
-        <v>10.56796119314139</v>
+        <v>11.93669546161947</v>
       </c>
       <c r="E7">
-        <v>7.992284888797328</v>
+        <v>12.39674771550861</v>
       </c>
       <c r="F7">
-        <v>59.83137636410392</v>
+        <v>58.09802818164776</v>
       </c>
       <c r="G7">
-        <v>2.150647078770308</v>
+        <v>3.799853910600621</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.09661018692281</v>
+        <v>22.11342736164215</v>
       </c>
       <c r="L7">
-        <v>5.087677529095139</v>
+        <v>8.642161673106816</v>
       </c>
       <c r="M7">
-        <v>15.5658349510519</v>
+        <v>22.54380290654377</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.680344024110704</v>
+        <v>12.58596089707112</v>
       </c>
       <c r="D8">
-        <v>11.01274817902675</v>
+        <v>12.04791718998475</v>
       </c>
       <c r="E8">
-        <v>8.160875338409811</v>
+        <v>12.38819769595746</v>
       </c>
       <c r="F8">
-        <v>64.16765293426074</v>
+        <v>59.23615101768195</v>
       </c>
       <c r="G8">
-        <v>2.129828926864683</v>
+        <v>3.793049830700858</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.64376527156347</v>
+        <v>22.25236458316238</v>
       </c>
       <c r="L8">
-        <v>5.062296014319422</v>
+        <v>8.624771036817629</v>
       </c>
       <c r="M8">
-        <v>16.47641398223118</v>
+        <v>22.55958895413655</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.62531082775106</v>
+        <v>12.6811304610611</v>
       </c>
       <c r="D9">
-        <v>11.90195221249342</v>
+        <v>12.26617882926515</v>
       </c>
       <c r="E9">
-        <v>8.532480549828419</v>
+        <v>12.3857880830086</v>
       </c>
       <c r="F9">
-        <v>72.47576052755288</v>
+        <v>61.47256210335246</v>
       </c>
       <c r="G9">
-        <v>2.089550192069981</v>
+        <v>3.780950473889391</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.21201516738629</v>
+        <v>22.59323674705218</v>
       </c>
       <c r="L9">
-        <v>5.023049949332346</v>
+        <v>8.595485869538527</v>
       </c>
       <c r="M9">
-        <v>18.31523336593383</v>
+        <v>22.64466153940324</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.33835902866015</v>
+        <v>12.76398281787807</v>
       </c>
       <c r="D10">
-        <v>12.57307975084566</v>
+        <v>12.42632645371046</v>
       </c>
       <c r="E10">
-        <v>8.835211967138928</v>
+        <v>12.39280945162262</v>
       </c>
       <c r="F10">
-        <v>78.49560397436231</v>
+        <v>63.10719892436272</v>
       </c>
       <c r="G10">
-        <v>2.059660718262784</v>
+        <v>3.772807001868363</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.72377175337803</v>
+        <v>22.88360863703198</v>
       </c>
       <c r="L10">
-        <v>5.001223793085672</v>
+        <v>8.576893393334066</v>
       </c>
       <c r="M10">
-        <v>20.06514080497066</v>
+        <v>22.74002287599276</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.66839520484787</v>
+        <v>12.80442823018323</v>
       </c>
       <c r="D11">
-        <v>12.8847057607987</v>
+        <v>12.49906757210049</v>
       </c>
       <c r="E11">
-        <v>8.980767076999287</v>
+        <v>12.39791899303138</v>
       </c>
       <c r="F11">
-        <v>81.23094217425736</v>
+        <v>63.84667549704835</v>
       </c>
       <c r="G11">
-        <v>2.045819787494721</v>
+        <v>3.769261689641248</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.84693850712012</v>
+        <v>23.02392692633866</v>
       </c>
       <c r="L11">
-        <v>4.992981284248827</v>
+        <v>8.569067125122604</v>
       </c>
       <c r="M11">
-        <v>20.93444549871317</v>
+        <v>22.79048197367107</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.79439472484836</v>
+        <v>12.82013445380957</v>
       </c>
       <c r="D12">
-        <v>13.00389949570293</v>
+        <v>12.52659052574553</v>
       </c>
       <c r="E12">
-        <v>9.037163367195785</v>
+        <v>12.40012954378843</v>
       </c>
       <c r="F12">
-        <v>82.26816157246442</v>
+        <v>64.12591340395619</v>
       </c>
       <c r="G12">
-        <v>2.040524514934678</v>
+        <v>3.767941860313335</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.2703841369004</v>
+        <v>23.07820245830274</v>
       </c>
       <c r="L12">
-        <v>4.990119823118112</v>
+        <v>8.566194122043713</v>
       </c>
       <c r="M12">
-        <v>21.26188231456696</v>
+        <v>22.81060009139166</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.76720889885224</v>
+        <v>12.81673457198417</v>
       </c>
       <c r="D13">
-        <v>12.97817090061646</v>
+        <v>12.52066407351463</v>
       </c>
       <c r="E13">
-        <v>9.024957785841426</v>
+        <v>12.39964119882293</v>
       </c>
       <c r="F13">
-        <v>82.04467933864544</v>
+        <v>64.06581246924543</v>
       </c>
       <c r="G13">
-        <v>2.041667695838102</v>
+        <v>3.768225102435389</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.17925379992124</v>
+        <v>23.06646325838554</v>
       </c>
       <c r="L13">
-        <v>4.9907242211332</v>
+        <v>8.5668088464804</v>
       </c>
       <c r="M13">
-        <v>21.19142791860958</v>
+        <v>22.80622249456136</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.67873932080703</v>
+        <v>12.80571260130553</v>
       </c>
       <c r="D14">
-        <v>12.89448622785166</v>
+        <v>12.50133239176449</v>
       </c>
       <c r="E14">
-        <v>8.985380230069334</v>
+        <v>12.39809533045392</v>
       </c>
       <c r="F14">
-        <v>81.3162339174304</v>
+        <v>63.8696653960135</v>
       </c>
       <c r="G14">
-        <v>2.045385348162147</v>
+        <v>3.7691526525584</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.8818071115701</v>
+        <v>23.02836961392979</v>
       </c>
       <c r="L14">
-        <v>4.992740551493942</v>
+        <v>8.568828945991596</v>
       </c>
       <c r="M14">
-        <v>20.96141442423938</v>
+        <v>22.79211690273297</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.62468967889226</v>
+        <v>12.79901198842334</v>
       </c>
       <c r="D15">
-        <v>12.84339118962037</v>
+        <v>12.48948804680185</v>
       </c>
       <c r="E15">
-        <v>8.961309332363058</v>
+        <v>12.39718434779406</v>
       </c>
       <c r="F15">
-        <v>80.87028827397957</v>
+        <v>63.749411711731</v>
       </c>
       <c r="G15">
-        <v>2.047654850701898</v>
+        <v>3.769723754850571</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.6993995541685</v>
+        <v>23.00518330552013</v>
       </c>
       <c r="L15">
-        <v>4.99401001950173</v>
+        <v>8.570078113320871</v>
       </c>
       <c r="M15">
-        <v>20.82032004792049</v>
+        <v>22.78360814940987</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.3169204583205</v>
+        <v>12.76139457885994</v>
       </c>
       <c r="D16">
-        <v>12.55286363970643</v>
+        <v>12.42156985979878</v>
       </c>
       <c r="E16">
-        <v>8.825869396956566</v>
+        <v>12.39251409826884</v>
       </c>
       <c r="F16">
-        <v>78.31692599650751</v>
+        <v>63.05877275796436</v>
       </c>
       <c r="G16">
-        <v>2.060558819088722</v>
+        <v>3.773041883654264</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.65005303317668</v>
+        <v>22.874600437128</v>
       </c>
       <c r="L16">
-        <v>5.001797795314246</v>
+        <v>8.577417551124626</v>
       </c>
       <c r="M16">
-        <v>20.00804329149423</v>
+        <v>22.73686708391963</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.12969032877584</v>
+        <v>12.73901931061277</v>
       </c>
       <c r="D17">
-        <v>12.37642988857729</v>
+        <v>12.37987121710253</v>
       </c>
       <c r="E17">
-        <v>8.744885508595765</v>
+        <v>12.39013985767228</v>
       </c>
       <c r="F17">
-        <v>76.75086640498027</v>
+        <v>62.63389223562348</v>
       </c>
       <c r="G17">
-        <v>2.068400246740283</v>
+        <v>3.775118087677429</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.00192550943236</v>
+        <v>22.79656941238293</v>
       </c>
       <c r="L17">
-        <v>5.007018520586445</v>
+        <v>8.582081682224887</v>
       </c>
       <c r="M17">
-        <v>19.50582662796707</v>
+        <v>22.71000106516975</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.02251761292941</v>
+        <v>12.72640939088515</v>
       </c>
       <c r="D18">
-        <v>12.27552484898307</v>
+        <v>12.35587723180245</v>
       </c>
       <c r="E18">
-        <v>8.699032917082331</v>
+        <v>12.38895454553175</v>
       </c>
       <c r="F18">
-        <v>75.84967502650306</v>
+        <v>62.3891348123399</v>
       </c>
       <c r="G18">
-        <v>2.072888797134649</v>
+        <v>3.776327260714488</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.62724334934068</v>
+        <v>22.75246511269575</v>
       </c>
       <c r="L18">
-        <v>5.010178853952831</v>
+        <v>8.584823821389035</v>
       </c>
       <c r="M18">
-        <v>19.21531198887778</v>
+        <v>22.69521527185261</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.98631444554156</v>
+        <v>12.72218466713701</v>
       </c>
       <c r="D19">
-        <v>12.24145160464355</v>
+        <v>12.34775175686172</v>
       </c>
       <c r="E19">
-        <v>8.683628913251349</v>
+        <v>12.38858417479306</v>
       </c>
       <c r="F19">
-        <v>75.54442495094821</v>
+        <v>62.30620529234125</v>
       </c>
       <c r="G19">
-        <v>2.0744053402512</v>
+        <v>3.776739247131822</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.50003191986058</v>
+        <v>22.73766688424997</v>
       </c>
       <c r="L19">
-        <v>5.01127546810557</v>
+        <v>8.585762479476783</v>
       </c>
       <c r="M19">
-        <v>19.11664594695888</v>
+        <v>22.69032379187032</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.14956651056699</v>
+        <v>12.74137435394368</v>
       </c>
       <c r="D20">
-        <v>12.39515027651928</v>
+        <v>12.3843111940796</v>
       </c>
       <c r="E20">
-        <v>8.753430146724853</v>
+        <v>12.39037393841677</v>
       </c>
       <c r="F20">
-        <v>76.91760955541412</v>
+        <v>62.6791619620344</v>
       </c>
       <c r="G20">
-        <v>2.067567876349512</v>
+        <v>3.774895521612773</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.07111003611904</v>
+        <v>22.80479582598167</v>
       </c>
       <c r="L20">
-        <v>5.006446349257317</v>
+        <v>8.581579025530274</v>
       </c>
       <c r="M20">
-        <v>19.55945493533002</v>
+        <v>22.71279203461697</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.70469521419518</v>
+        <v>12.8089394744473</v>
       </c>
       <c r="D21">
-        <v>12.91903160831297</v>
+        <v>12.50701123988815</v>
       </c>
       <c r="E21">
-        <v>8.996969054067314</v>
+        <v>12.39854190636838</v>
       </c>
       <c r="F21">
-        <v>81.53014010095657</v>
+        <v>63.92730137461005</v>
       </c>
       <c r="G21">
-        <v>2.044295021232341</v>
+        <v>3.768879593941048</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.96921681248102</v>
+        <v>23.03952805516397</v>
       </c>
       <c r="L21">
-        <v>4.992141099835003</v>
+        <v>8.568233135410761</v>
       </c>
       <c r="M21">
-        <v>21.02901609598114</v>
+        <v>22.79623270360759</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.07361583647659</v>
+        <v>12.85536977815451</v>
       </c>
       <c r="D22">
-        <v>13.26853085882828</v>
+        <v>12.58706835751228</v>
       </c>
       <c r="E22">
-        <v>9.163682961420887</v>
+        <v>12.40548703372143</v>
       </c>
       <c r="F22">
-        <v>84.55420885564607</v>
+        <v>64.73836761101064</v>
       </c>
       <c r="G22">
-        <v>2.028757955494412</v>
+        <v>3.765080082800936</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.19941876793409</v>
+        <v>23.19956253281338</v>
       </c>
       <c r="L22">
-        <v>4.984316907174851</v>
+        <v>8.560039033067708</v>
       </c>
       <c r="M22">
-        <v>21.97970705061359</v>
+        <v>22.85665060976613</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.87606737762157</v>
+        <v>12.83038317608532</v>
       </c>
       <c r="D23">
-        <v>13.08123246954677</v>
+        <v>12.54435487785539</v>
       </c>
       <c r="E23">
-        <v>9.073953877529409</v>
+        <v>12.4016332118703</v>
       </c>
       <c r="F23">
-        <v>82.93856093965795</v>
+        <v>64.30597502495847</v>
       </c>
       <c r="G23">
-        <v>2.037087710787266</v>
+        <v>3.767095915335587</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.54341608896639</v>
+        <v>23.11355790542418</v>
       </c>
       <c r="L23">
-        <v>4.988346574850405</v>
+        <v>8.564364107121323</v>
       </c>
       <c r="M23">
-        <v>21.47292293316729</v>
+        <v>22.82386885786406</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.14057904446718</v>
+        <v>12.74030884751613</v>
       </c>
       <c r="D24">
-        <v>12.38668516110066</v>
+        <v>12.3823039450264</v>
       </c>
       <c r="E24">
-        <v>8.749564927217905</v>
+        <v>12.3902675508981</v>
       </c>
       <c r="F24">
-        <v>76.84222773443892</v>
+        <v>62.65869702393449</v>
       </c>
       <c r="G24">
-        <v>2.067944250653377</v>
+        <v>3.7749960953263</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.03983821037923</v>
+        <v>22.80107430397972</v>
       </c>
       <c r="L24">
-        <v>5.00670453433294</v>
+        <v>8.581806087640844</v>
       </c>
       <c r="M24">
-        <v>19.53521518369744</v>
+        <v>22.71152818152317</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.36674070203374</v>
+        <v>12.65309715373743</v>
       </c>
       <c r="D25">
-        <v>11.6589340281174</v>
+        <v>12.20714706364791</v>
       </c>
       <c r="E25">
-        <v>8.427127802357715</v>
+        <v>12.38489842350936</v>
       </c>
       <c r="F25">
-        <v>70.24670295353359</v>
+        <v>60.86823420918584</v>
       </c>
       <c r="G25">
-        <v>2.100446674174525</v>
+        <v>3.784091802996222</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.26470715011062</v>
+        <v>22.49386643115766</v>
       </c>
       <c r="L25">
-        <v>5.03248488708494</v>
+        <v>8.602893935878173</v>
       </c>
       <c r="M25">
-        <v>17.81185123512535</v>
+        <v>22.61586150137859</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_234/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_234/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.59759837740221</v>
+        <v>9.809063733878627</v>
       </c>
       <c r="D2">
-        <v>12.07807400996011</v>
+        <v>11.13420320823062</v>
       </c>
       <c r="E2">
-        <v>12.38685093838693</v>
+        <v>8.209182706118966</v>
       </c>
       <c r="F2">
-        <v>59.54525487882027</v>
+        <v>65.32874000315977</v>
       </c>
       <c r="G2">
-        <v>3.791290863414195</v>
+        <v>2.124244946042297</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.2946968890948</v>
+        <v>20.13150123749656</v>
       </c>
       <c r="L2">
-        <v>8.620385607774349</v>
+        <v>5.056112570911674</v>
       </c>
       <c r="M2">
-        <v>22.56752991014817</v>
+        <v>16.72670998762218</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.56548497165073</v>
+        <v>9.437636105285675</v>
       </c>
       <c r="D3">
-        <v>11.99063217526515</v>
+        <v>10.78307421629432</v>
       </c>
       <c r="E3">
-        <v>12.3918448796539</v>
+        <v>8.072077513725473</v>
       </c>
       <c r="F3">
-        <v>58.64943377490314</v>
+        <v>61.94585152639755</v>
       </c>
       <c r="G3">
-        <v>3.796486930794841</v>
+        <v>2.140496444807791</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.17715874727757</v>
+        <v>18.85044903688668</v>
       </c>
       <c r="L3">
-        <v>8.633470237417729</v>
+        <v>5.074830176364501</v>
       </c>
       <c r="M3">
-        <v>22.54860712892781</v>
+        <v>16.00476258375312</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.54849518781128</v>
+        <v>9.212735509010589</v>
       </c>
       <c r="D4">
-        <v>11.93699011476378</v>
+        <v>10.56913355463163</v>
       </c>
       <c r="E4">
-        <v>12.39671666261354</v>
+        <v>7.992710086117868</v>
       </c>
       <c r="F4">
-        <v>58.1010366047169</v>
+        <v>59.84299368797578</v>
       </c>
       <c r="G4">
-        <v>3.799835133562097</v>
+        <v>2.150591264582566</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.11375484052347</v>
+        <v>18.10074794339593</v>
       </c>
       <c r="L4">
-        <v>8.642112729878654</v>
+        <v>5.087604340552603</v>
       </c>
       <c r="M4">
-        <v>22.54381306196882</v>
+        <v>15.56821757137987</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.54225972679078</v>
+        <v>9.121897492295306</v>
       </c>
       <c r="D5">
-        <v>11.91514738260152</v>
+        <v>10.48230519360561</v>
       </c>
       <c r="E5">
-        <v>12.39915520495384</v>
+        <v>7.961524605157989</v>
       </c>
       <c r="F5">
-        <v>57.87816530659294</v>
+        <v>58.9796889276202</v>
       </c>
       <c r="G5">
-        <v>3.801239421090784</v>
+        <v>2.154741439586038</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.09014256364203</v>
+        <v>17.79340670678939</v>
       </c>
       <c r="L5">
-        <v>8.645787852764725</v>
+        <v>5.093125229593742</v>
       </c>
       <c r="M5">
-        <v>22.5435749621522</v>
+        <v>15.39208844523499</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.54126593447682</v>
+        <v>9.106863710798244</v>
       </c>
       <c r="D6">
-        <v>11.91152156771346</v>
+        <v>10.46790729133466</v>
       </c>
       <c r="E6">
-        <v>12.39958747427976</v>
+        <v>7.956414708360987</v>
       </c>
       <c r="F6">
-        <v>57.84119983154423</v>
+        <v>58.83596020335048</v>
       </c>
       <c r="G6">
-        <v>3.801475015394334</v>
+        <v>2.155432969766862</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.08635670965693</v>
+        <v>17.74226843901446</v>
       </c>
       <c r="L6">
-        <v>8.646407366077016</v>
+        <v>5.0940608249329</v>
       </c>
       <c r="M6">
-        <v>22.54363899459797</v>
+        <v>15.3629520016729</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.54840830622855</v>
+        <v>9.211507117482116</v>
       </c>
       <c r="D7">
-        <v>11.93669546161947</v>
+        <v>10.56796119314144</v>
       </c>
       <c r="E7">
-        <v>12.39674771550861</v>
+        <v>7.992284888797394</v>
       </c>
       <c r="F7">
-        <v>58.09802818164776</v>
+        <v>59.83137636410368</v>
       </c>
       <c r="G7">
-        <v>3.799853910600621</v>
+        <v>2.150647078769918</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.11342736164215</v>
+        <v>18.09661018692285</v>
       </c>
       <c r="L7">
-        <v>8.642161673106816</v>
+        <v>5.087677529095072</v>
       </c>
       <c r="M7">
-        <v>22.54380290654377</v>
+        <v>15.56583495105198</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.58596089707112</v>
+        <v>9.680344024110859</v>
       </c>
       <c r="D8">
-        <v>12.04791718998475</v>
+        <v>11.01274817902678</v>
       </c>
       <c r="E8">
-        <v>12.38819769595746</v>
+        <v>8.160875338409875</v>
       </c>
       <c r="F8">
-        <v>59.23615101768195</v>
+        <v>64.16765293426081</v>
       </c>
       <c r="G8">
-        <v>3.793049830700858</v>
+        <v>2.129828926864568</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.25236458316238</v>
+        <v>19.64376527156347</v>
       </c>
       <c r="L8">
-        <v>8.624771036817629</v>
+        <v>5.062296014319393</v>
       </c>
       <c r="M8">
-        <v>22.55958895413655</v>
+        <v>16.4764139822312</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.6811304610611</v>
+        <v>10.62531082775108</v>
       </c>
       <c r="D9">
-        <v>12.26617882926515</v>
+        <v>11.90195221249356</v>
       </c>
       <c r="E9">
-        <v>12.3857880830086</v>
+        <v>8.532480549828508</v>
       </c>
       <c r="F9">
-        <v>61.47256210335246</v>
+        <v>72.47576052755332</v>
       </c>
       <c r="G9">
-        <v>3.780950473889391</v>
+        <v>2.089550192070246</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.59323674705218</v>
+        <v>23.2120151673863</v>
       </c>
       <c r="L9">
-        <v>8.595485869538527</v>
+        <v>5.023049949332375</v>
       </c>
       <c r="M9">
-        <v>22.64466153940324</v>
+        <v>18.31523336593382</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.76398281787807</v>
+        <v>11.33835902866021</v>
       </c>
       <c r="D10">
-        <v>12.42632645371046</v>
+        <v>12.57307975084569</v>
       </c>
       <c r="E10">
-        <v>12.39280945162262</v>
+        <v>8.835211967138971</v>
       </c>
       <c r="F10">
-        <v>63.10719892436272</v>
+        <v>78.49560397436237</v>
       </c>
       <c r="G10">
-        <v>3.772807001868363</v>
+        <v>2.059660718262517</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.88360863703198</v>
+        <v>25.72377175337803</v>
       </c>
       <c r="L10">
-        <v>8.576893393334066</v>
+        <v>5.00122379308562</v>
       </c>
       <c r="M10">
-        <v>22.74002287599276</v>
+        <v>20.06514080497064</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.80442823018323</v>
+        <v>11.66839520484798</v>
       </c>
       <c r="D11">
-        <v>12.49906757210049</v>
+        <v>12.88470576079875</v>
       </c>
       <c r="E11">
-        <v>12.39791899303138</v>
+        <v>8.980767076999333</v>
       </c>
       <c r="F11">
-        <v>63.84667549704835</v>
+        <v>81.23094217425736</v>
       </c>
       <c r="G11">
-        <v>3.769261689641248</v>
+        <v>2.045819787494602</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.02392692633866</v>
+        <v>26.8469385071201</v>
       </c>
       <c r="L11">
-        <v>8.569067125122604</v>
+        <v>4.992981284248878</v>
       </c>
       <c r="M11">
-        <v>22.79048197367107</v>
+        <v>20.93444549871318</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.82013445380957</v>
+        <v>11.79439472484833</v>
       </c>
       <c r="D12">
-        <v>12.52659052574553</v>
+        <v>13.00389949570306</v>
       </c>
       <c r="E12">
-        <v>12.40012954378843</v>
+        <v>9.037163367195793</v>
       </c>
       <c r="F12">
-        <v>64.12591340395619</v>
+        <v>82.26816157246471</v>
       </c>
       <c r="G12">
-        <v>3.767941860313335</v>
+        <v>2.040524514934663</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.07820245830274</v>
+        <v>27.27038413690049</v>
       </c>
       <c r="L12">
-        <v>8.566194122043713</v>
+        <v>4.990119823118114</v>
       </c>
       <c r="M12">
-        <v>22.81060009139166</v>
+        <v>21.26188231456705</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.81673457198417</v>
+        <v>11.76720889885231</v>
       </c>
       <c r="D13">
-        <v>12.52066407351463</v>
+        <v>12.97817090061667</v>
       </c>
       <c r="E13">
-        <v>12.39964119882293</v>
+        <v>9.024957785841375</v>
       </c>
       <c r="F13">
-        <v>64.06581246924543</v>
+        <v>82.04467933864612</v>
       </c>
       <c r="G13">
-        <v>3.768225102435389</v>
+        <v>2.041667695837714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.06646325838554</v>
+        <v>27.17925379992126</v>
       </c>
       <c r="L13">
-        <v>8.5668088464804</v>
+        <v>4.990724221133178</v>
       </c>
       <c r="M13">
-        <v>22.80622249456136</v>
+        <v>21.19142791860963</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.80571260130553</v>
+        <v>11.67873932080691</v>
       </c>
       <c r="D14">
-        <v>12.50133239176449</v>
+        <v>12.89448622785152</v>
       </c>
       <c r="E14">
-        <v>12.39809533045392</v>
+        <v>8.985380230069268</v>
       </c>
       <c r="F14">
-        <v>63.8696653960135</v>
+        <v>81.31623391743038</v>
       </c>
       <c r="G14">
-        <v>3.7691526525584</v>
+        <v>2.045385348162141</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.02836961392979</v>
+        <v>26.88180711157025</v>
       </c>
       <c r="L14">
-        <v>8.568828945991596</v>
+        <v>4.992740551494004</v>
       </c>
       <c r="M14">
-        <v>22.79211690273297</v>
+        <v>20.96141442423947</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.79901198842334</v>
+        <v>11.62468967889229</v>
       </c>
       <c r="D15">
-        <v>12.48948804680185</v>
+        <v>12.84339118962042</v>
       </c>
       <c r="E15">
-        <v>12.39718434779406</v>
+        <v>8.961309332363054</v>
       </c>
       <c r="F15">
-        <v>63.749411711731</v>
+        <v>80.87028827397988</v>
       </c>
       <c r="G15">
-        <v>3.769723754850571</v>
+        <v>2.047654850701894</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.00518330552013</v>
+        <v>26.69939955416856</v>
       </c>
       <c r="L15">
-        <v>8.570078113320871</v>
+        <v>4.994010019501709</v>
       </c>
       <c r="M15">
-        <v>22.78360814940987</v>
+        <v>20.82032004792057</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.76139457885994</v>
+        <v>11.31692045832047</v>
       </c>
       <c r="D16">
-        <v>12.42156985979878</v>
+        <v>12.55286363970643</v>
       </c>
       <c r="E16">
-        <v>12.39251409826884</v>
+        <v>8.825869396956564</v>
       </c>
       <c r="F16">
-        <v>63.05877275796436</v>
+        <v>78.31692599650704</v>
       </c>
       <c r="G16">
-        <v>3.773041883654264</v>
+        <v>2.060558819088601</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.874600437128</v>
+        <v>25.65005303317663</v>
       </c>
       <c r="L16">
-        <v>8.577417551124626</v>
+        <v>5.00179779531423</v>
       </c>
       <c r="M16">
-        <v>22.73686708391963</v>
+        <v>20.00804329149417</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.73901931061277</v>
+        <v>11.12969032877581</v>
       </c>
       <c r="D17">
-        <v>12.37987121710253</v>
+        <v>12.37642988857748</v>
       </c>
       <c r="E17">
-        <v>12.39013985767228</v>
+        <v>8.744885508595743</v>
       </c>
       <c r="F17">
-        <v>62.63389223562348</v>
+        <v>76.75086640498094</v>
       </c>
       <c r="G17">
-        <v>3.775118087677429</v>
+        <v>2.068400246739916</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.79656941238293</v>
+        <v>25.00192550943236</v>
       </c>
       <c r="L17">
-        <v>8.582081682224887</v>
+        <v>5.007018520586475</v>
       </c>
       <c r="M17">
-        <v>22.71000106516975</v>
+        <v>19.50582662796712</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.72640939088515</v>
+        <v>11.02251761292943</v>
       </c>
       <c r="D18">
-        <v>12.35587723180245</v>
+        <v>12.27552484898309</v>
       </c>
       <c r="E18">
-        <v>12.38895454553175</v>
+        <v>8.699032917082398</v>
       </c>
       <c r="F18">
-        <v>62.3891348123399</v>
+        <v>75.84967502650321</v>
       </c>
       <c r="G18">
-        <v>3.776327260714488</v>
+        <v>2.072888797134796</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.75246511269575</v>
+        <v>24.62724334934067</v>
       </c>
       <c r="L18">
-        <v>8.584823821389035</v>
+        <v>5.010178853952944</v>
       </c>
       <c r="M18">
-        <v>22.69521527185261</v>
+        <v>19.21531198887776</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.72218466713701</v>
+        <v>10.98631444554148</v>
       </c>
       <c r="D19">
-        <v>12.34775175686172</v>
+        <v>12.2414516046436</v>
       </c>
       <c r="E19">
-        <v>12.38858417479306</v>
+        <v>8.683628913251312</v>
       </c>
       <c r="F19">
-        <v>62.30620529234125</v>
+        <v>75.54442495094824</v>
       </c>
       <c r="G19">
-        <v>3.776739247131822</v>
+        <v>2.074405340251321</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.73766688424997</v>
+        <v>24.50003191986067</v>
       </c>
       <c r="L19">
-        <v>8.585762479476783</v>
+        <v>5.011275468105612</v>
       </c>
       <c r="M19">
-        <v>22.69032379187032</v>
+        <v>19.11664594695894</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.74137435394368</v>
+        <v>11.14956651056698</v>
       </c>
       <c r="D20">
-        <v>12.3843111940796</v>
+        <v>12.39515027651933</v>
       </c>
       <c r="E20">
-        <v>12.39037393841677</v>
+        <v>8.753430146724785</v>
       </c>
       <c r="F20">
-        <v>62.6791619620344</v>
+        <v>76.91760955541432</v>
       </c>
       <c r="G20">
-        <v>3.774895521612773</v>
+        <v>2.067567876349258</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.80479582598167</v>
+        <v>25.07111003611912</v>
       </c>
       <c r="L20">
-        <v>8.581579025530274</v>
+        <v>5.006446349257355</v>
       </c>
       <c r="M20">
-        <v>22.71279203461697</v>
+        <v>19.55945493533008</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.8089394744473</v>
+        <v>11.70469521419521</v>
       </c>
       <c r="D21">
-        <v>12.50701123988815</v>
+        <v>12.91903160831303</v>
       </c>
       <c r="E21">
-        <v>12.39854190636838</v>
+        <v>8.996969054067309</v>
       </c>
       <c r="F21">
-        <v>63.92730137461005</v>
+        <v>81.53014010095644</v>
       </c>
       <c r="G21">
-        <v>3.768879593941048</v>
+        <v>2.044295021232336</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.03952805516397</v>
+        <v>26.96921681248109</v>
       </c>
       <c r="L21">
-        <v>8.568233135410761</v>
+        <v>4.992141099834989</v>
       </c>
       <c r="M21">
-        <v>22.79623270360759</v>
+        <v>21.02901609598122</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.85536977815451</v>
+        <v>12.07361583647661</v>
       </c>
       <c r="D22">
-        <v>12.58706835751228</v>
+        <v>13.26853085882828</v>
       </c>
       <c r="E22">
-        <v>12.40548703372143</v>
+        <v>9.163682961420928</v>
       </c>
       <c r="F22">
-        <v>64.73836761101064</v>
+        <v>84.55420885564637</v>
       </c>
       <c r="G22">
-        <v>3.765080082800936</v>
+        <v>2.028757955494402</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.19956253281338</v>
+        <v>28.19941876793416</v>
       </c>
       <c r="L22">
-        <v>8.560039033067708</v>
+        <v>4.984316907174858</v>
       </c>
       <c r="M22">
-        <v>22.85665060976613</v>
+        <v>21.97970705061367</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.83038317608532</v>
+        <v>11.87606737762158</v>
       </c>
       <c r="D23">
-        <v>12.54435487785539</v>
+        <v>13.08123246954697</v>
       </c>
       <c r="E23">
-        <v>12.4016332118703</v>
+        <v>9.073953877529405</v>
       </c>
       <c r="F23">
-        <v>64.30597502495847</v>
+        <v>82.93856093965908</v>
       </c>
       <c r="G23">
-        <v>3.767095915335587</v>
+        <v>2.037087710787027</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.11355790542418</v>
+        <v>27.54341608896666</v>
       </c>
       <c r="L23">
-        <v>8.564364107121323</v>
+        <v>4.988346574850422</v>
       </c>
       <c r="M23">
-        <v>22.82386885786406</v>
+        <v>21.47292293316748</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.74030884751613</v>
+        <v>11.14057904446729</v>
       </c>
       <c r="D24">
-        <v>12.3823039450264</v>
+        <v>12.38668516110059</v>
       </c>
       <c r="E24">
-        <v>12.3902675508981</v>
+        <v>8.749564927217895</v>
       </c>
       <c r="F24">
-        <v>62.65869702393449</v>
+        <v>76.84222773443892</v>
       </c>
       <c r="G24">
-        <v>3.7749960953263</v>
+        <v>2.067944250653498</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.80107430397972</v>
+        <v>25.03983821037924</v>
       </c>
       <c r="L24">
-        <v>8.581806087640844</v>
+        <v>5.006704534332849</v>
       </c>
       <c r="M24">
-        <v>22.71152818152317</v>
+        <v>19.53521518369743</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.65309715373743</v>
+        <v>10.36674070203371</v>
       </c>
       <c r="D25">
-        <v>12.20714706364791</v>
+        <v>11.65893402811752</v>
       </c>
       <c r="E25">
-        <v>12.38489842350936</v>
+        <v>8.427127802357665</v>
       </c>
       <c r="F25">
-        <v>60.86823420918584</v>
+        <v>70.24670295353395</v>
       </c>
       <c r="G25">
-        <v>3.784091802996222</v>
+        <v>2.100446674174782</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.49386643115766</v>
+        <v>22.26470715011068</v>
       </c>
       <c r="L25">
-        <v>8.602893935878173</v>
+        <v>5.032484887084884</v>
       </c>
       <c r="M25">
-        <v>22.61586150137859</v>
+        <v>17.81185123512529</v>
       </c>
       <c r="N25">
         <v>0</v>
